--- a/biology/Médecine/Nikolaï_Korotkov/Nikolaï_Korotkov.xlsx
+++ b/biology/Médecine/Nikolaï_Korotkov/Nikolaï_Korotkov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Korotkov</t>
+          <t>Nikolaï_Korotkov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikolaï Sergueïevitch Korotkov (en russe : Николай Сергеевич Коротков) est un médecin russe, pionnier de la chirurgie vasculaire, né le 13 février 1874 à Koursk (Russie) et mort le 14 mars 1920 à Petrograd (République socialiste fédérative soviétique de Russie, Union soviétique).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Korotkov</t>
+          <t>Nikolaï_Korotkov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille de marchands, Nikolaï Korotkov fit ses études à Koursk puis entra à la faculté de médecine de l'université impériale de Kharkov en 1893, et ensuite à l'université d'État de Moscou en 1895. Il en sortit en 1898, avec les honneurs.
 Après avoir été interne à Moscou, il partit faire son service militaire en 1900 en Extrême-Orient, et notamment en Chine lors de la révolte des Boxers. Entré dans la Croix-Rouge, il parcourut la Sibérie, Ceylan, le Japon, et Singapour, avant de revenir à Moscou. Il fut décoré de l'ordre de Sainte-Anne pour son aide aux soldats blessés. Il se lança dans la recherche, et traduisit le Die Chirurgische Diagnostik d'Eduard Albert. Il entra en 1903 à l'Académie de Médecine militaire à Saint-Pétersbourg comme assistant-chirurgien. Pendant la guerre russo-japonaise, il fut chirurgien principal d'une des sections de la Croix-Rouge, à Kharbine, où il commença à s'intéresser à la chirurgie vasculaire.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Korotkov</t>
+          <t>Nikolaï_Korotkov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1896, Scipione Riva-Rocci invente un sphygmomanomètre sensible à la pression artérielle. Ce tensiomètre sera repris en 1905, par Nikolaï Korotkov qui y ajoute l’utilisation d’un stéthoscope sur l’artère brachiale, ce qui permet d’entendre des bruits beaucoup plus précis (bruits de Korotkoff). Victor Pachon y rajoutera, lui, un oscillomètre, ce qui permet de mesurer la tension artérielle sans stéthoscope[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1896, Scipione Riva-Rocci invente un sphygmomanomètre sensible à la pression artérielle. Ce tensiomètre sera repris en 1905, par Nikolaï Korotkov qui y ajoute l’utilisation d’un stéthoscope sur l’artère brachiale, ce qui permet d’entendre des bruits beaucoup plus précis (bruits de Korotkoff). Victor Pachon y rajoutera, lui, un oscillomètre, ce qui permet de mesurer la tension artérielle sans stéthoscope.
 </t>
         </is>
       </c>
